--- a/命令词列表_指令中文模板.xlsx
+++ b/命令词列表_指令中文模板.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>语义标签</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>测试模式</t>
+  </si>
+  <si>
+    <t>来首二星的歌</t>
+  </si>
+  <si>
+    <t>放首二星的歌</t>
+  </si>
+  <si>
+    <t>二星歌曲</t>
   </si>
   <si>
     <t>中文命令词</t>
@@ -1373,10 +1382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2267,10 +2276,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C214">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C79 C80:C83 C84:C214">
       <formula1>"唤醒词,命令词,负性词"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2298,57 +2340,57 @@
     <row r="1" ht="15"/>
     <row r="2" ht="18" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="100.5" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
